--- a/BOMs/Updated Colective BOM.xlsx
+++ b/BOMs/Updated Colective BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramal\Documents\4th Year\IGEN 430 - Capstone - FireNet\FireNet.git\trunk\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramal\Documents\4th Year\IGEN 430 - Capstone - FireNet\FireNet.git\trunk\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634778FE-8E1A-4156-8EFB-62036E4022C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DDC0E3-C521-4230-B760-5504D1C140CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{71E857DF-E283-46AC-A683-3AC5199DF079}"/>
   </bookViews>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5E4FBD-9CF8-4DE3-9FF9-8F48F153580F}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
